--- a/biology/Botanique/Erodium_maritimum/Erodium_maritimum.xlsx
+++ b/biology/Botanique/Erodium_maritimum/Erodium_maritimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erodium maritimum
 Le bec-de-grue maritime (Erodium maritimum) est une plante herbacée annuelle de la famille des Géraniacées.
-Il s'agit d'une espèce à répartition méditerranéenne-atlantique typique, essentiellement littorale[1]. Ce petit bec-de-grue est rare dans la majeure partie de son aire, parfois en déclin, et fait l'objet de mesures de protection locales.
+Il s'agit d'une espèce à répartition méditerranéenne-atlantique typique, essentiellement littorale. Ce petit bec-de-grue est rare dans la majeure partie de son aire, parfois en déclin, et fait l'objet de mesures de protection locales.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À une exception près (Tunisie), Erodium maritimum est une plante strictement européenne. Elle y occupe une aire fortement disjointe, atlantique du sud de l'Écosse au nord-ouest de l'Espagne, et méditerranéenne en Italie, en Corse, aux Baléares et au nord de la Tunisie.
 </t>
